--- a/data/trans_orig/P6606-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F30FFDB-41E2-4C7F-80A7-2AF636C71FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BC6E2B-D739-4F6E-A54E-A6C7F2233E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{177C3048-0ACC-4FE7-B913-FF1264544AF6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60CEF55B-7AD9-4648-858A-62E168BE9C23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="815">
   <si>
     <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>45,23%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
   </si>
   <si>
     <t>56,74%</t>
   </si>
   <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>48,69%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,2395 +107,2383 @@
     <t>22,24%</t>
   </si>
   <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2015 (Tasa respuesta: 35,35%)</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2015 (Tasa respuesta: 35,35%)</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>8,0%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +2895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B82E1A-5D9B-4BD1-9820-7BBBFF400C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34DA20-D888-4950-864E-15B29D427CD2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3650,10 +3638,10 @@
         <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3662,13 +3650,13 @@
         <v>5352</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3677,13 +3665,13 @@
         <v>131102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3686,13 @@
         <v>40518</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3713,13 +3701,13 @@
         <v>8759</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3728,13 +3716,13 @@
         <v>49277</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3778,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3802,13 +3790,13 @@
         <v>196503</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3817,13 +3805,13 @@
         <v>173774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>353</v>
@@ -3832,13 +3820,13 @@
         <v>370277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3841,13 @@
         <v>103441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3868,13 +3856,13 @@
         <v>28851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -3883,13 +3871,13 @@
         <v>132293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3892,13 @@
         <v>88260</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3919,13 +3907,13 @@
         <v>4886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -3934,13 +3922,13 @@
         <v>93146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3943,13 @@
         <v>18229</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3970,13 +3958,13 @@
         <v>3435</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3985,10 +3973,10 @@
         <v>21664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>156</v>
@@ -4128,10 +4116,10 @@
         <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -4140,13 +4128,13 @@
         <v>125920</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4149,13 @@
         <v>91736</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -4176,13 +4164,13 @@
         <v>19488</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -4191,13 +4179,13 @@
         <v>111224</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4200,13 @@
         <v>51074</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -4227,13 +4215,13 @@
         <v>6101</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -4242,13 +4230,13 @@
         <v>57176</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4304,13 @@
         <v>936085</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>765</v>
@@ -4331,13 +4319,13 @@
         <v>802189</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>1663</v>
@@ -4346,13 +4334,13 @@
         <v>1738275</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4355,13 @@
         <v>435043</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>153</v>
@@ -4382,13 +4370,13 @@
         <v>158699</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>565</v>
@@ -4397,13 +4385,13 @@
         <v>593742</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4406,13 @@
         <v>407384</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -4433,13 +4421,13 @@
         <v>39279</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>426</v>
@@ -4448,13 +4436,13 @@
         <v>446663</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4457,13 @@
         <v>125992</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -4484,13 +4472,13 @@
         <v>21171</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>146</v>
@@ -4499,13 +4487,13 @@
         <v>147163</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4549,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4582,7 +4570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1BA5D9-AB3D-4FDD-A0B6-1E933898F69B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888CA655-714F-4ED7-84A9-FF02C121E2C8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,7 +4587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4706,13 +4694,13 @@
         <v>11613</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4721,13 +4709,13 @@
         <v>10278</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4736,13 +4724,13 @@
         <v>21892</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4745,13 @@
         <v>15318</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4772,13 +4760,13 @@
         <v>10489</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4787,13 +4775,13 @@
         <v>25807</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4796,13 @@
         <v>12766</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4823,13 +4811,13 @@
         <v>2195</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -4838,13 +4826,13 @@
         <v>14961</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4847,13 @@
         <v>12035</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4874,13 +4862,13 @@
         <v>2224</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4889,13 +4877,13 @@
         <v>14260</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4951,13 @@
         <v>62448</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -4978,7 +4966,7 @@
         <v>63394</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>267</v>
@@ -5035,7 +5023,7 @@
         <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -5044,13 +5032,13 @@
         <v>116239</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5053,13 @@
         <v>54022</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -5116,13 +5104,13 @@
         <v>29082</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>104</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5131,13 +5119,13 @@
         <v>6986</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M12" s="7">
         <v>35</v>
@@ -5146,13 +5134,13 @@
         <v>36068</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5208,13 @@
         <v>153043</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -5235,13 +5223,13 @@
         <v>136538</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -5250,13 +5238,13 @@
         <v>289581</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5259,13 @@
         <v>109402</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -5286,13 +5274,13 @@
         <v>88724</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M15" s="7">
         <v>184</v>
@@ -5301,13 +5289,13 @@
         <v>198125</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5310,13 @@
         <v>98658</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -5337,13 +5325,13 @@
         <v>32620</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -5352,13 +5340,13 @@
         <v>131278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5361,13 @@
         <v>47187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5388,13 +5376,13 @@
         <v>13678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -5403,13 +5391,13 @@
         <v>60865</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,7 +5453,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5477,13 +5465,13 @@
         <v>105792</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -5492,13 +5480,13 @@
         <v>121615</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -5507,13 +5495,13 @@
         <v>227408</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5516,13 @@
         <v>102508</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5543,13 +5531,13 @@
         <v>48108</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>134</v>
@@ -5558,13 +5546,13 @@
         <v>150616</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5567,13 @@
         <v>77027</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -5594,13 +5582,13 @@
         <v>30644</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>101</v>
@@ -5609,13 +5597,13 @@
         <v>107671</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5618,13 @@
         <v>35139</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5645,13 +5633,13 @@
         <v>12914</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -5660,13 +5648,13 @@
         <v>48053</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5722,13 @@
         <v>179154</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>173</v>
@@ -5749,13 +5737,13 @@
         <v>181319</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>344</v>
@@ -5764,13 +5752,13 @@
         <v>360473</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5773,13 @@
         <v>124581</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -5800,13 +5788,13 @@
         <v>88376</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>207</v>
@@ -5815,13 +5803,13 @@
         <v>212957</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5824,13 @@
         <v>70579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5851,13 +5839,13 @@
         <v>20468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -5866,13 +5854,13 @@
         <v>91047</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5875,13 @@
         <v>41642</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>393</v>
+        <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -5902,13 +5890,13 @@
         <v>11340</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M27" s="7">
         <v>48</v>
@@ -5917,13 +5905,13 @@
         <v>52982</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5979,13 @@
         <v>512051</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H29" s="7">
         <v>470</v>
@@ -6006,13 +5994,13 @@
         <v>513146</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M29" s="7">
         <v>942</v>
@@ -6021,13 +6009,13 @@
         <v>1025196</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6030,13 @@
         <v>422611</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H30" s="7">
         <v>262</v>
@@ -6057,13 +6045,13 @@
         <v>281132</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M30" s="7">
         <v>661</v>
@@ -6072,13 +6060,13 @@
         <v>703744</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6081,13 @@
         <v>313051</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H31" s="7">
         <v>100</v>
@@ -6108,13 +6096,13 @@
         <v>106200</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M31" s="7">
         <v>402</v>
@@ -6123,13 +6111,13 @@
         <v>419251</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>32</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6132,13 @@
         <v>165085</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -6159,13 +6147,13 @@
         <v>47143</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M32" s="7">
         <v>197</v>
@@ -6174,13 +6162,13 @@
         <v>212228</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,7 +6224,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6257,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A172E02-8ADF-40D7-ACF0-7DAFF4669282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D6D5E3-E734-49E5-9E10-2D5074ABD706}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6274,7 +6262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6381,13 +6369,13 @@
         <v>8050</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -6396,13 +6384,13 @@
         <v>13057</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -6411,13 +6399,13 @@
         <v>21107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>255</v>
+        <v>440</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6420,13 @@
         <v>15508</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6447,13 +6435,13 @@
         <v>6066</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -6462,13 +6450,13 @@
         <v>21574</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6471,13 @@
         <v>17665</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -6498,13 +6486,13 @@
         <v>9827</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -6513,7 +6501,7 @@
         <v>27493</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>457</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>458</v>
@@ -6540,7 +6528,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6549,13 +6537,13 @@
         <v>941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6564,7 +6552,7 @@
         <v>2630</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>35</v>
@@ -6638,13 +6626,13 @@
         <v>63192</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -6653,13 +6641,13 @@
         <v>62309</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>470</v>
+        <v>92</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -6668,13 +6656,13 @@
         <v>125500</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6677,13 @@
         <v>70625</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -6704,13 +6692,13 @@
         <v>42187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -6719,13 +6707,13 @@
         <v>112812</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6728,13 @@
         <v>40422</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -6755,13 +6743,13 @@
         <v>19151</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -6770,13 +6758,13 @@
         <v>59574</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,7 +6779,7 @@
         <v>24010</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>489</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>490</v>
@@ -6809,10 +6797,10 @@
         <v>492</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -6821,13 +6809,13 @@
         <v>37841</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6883,13 @@
         <v>172697</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -6910,13 +6898,13 @@
         <v>146374</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>292</v>
@@ -6925,13 +6913,13 @@
         <v>319071</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,10 +6934,10 @@
         <v>120179</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>508</v>
@@ -6964,10 +6952,10 @@
         <v>509</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M15" s="7">
         <v>190</v>
@@ -6976,13 +6964,13 @@
         <v>202704</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6985,13 @@
         <v>77945</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -7012,13 +7000,13 @@
         <v>38056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>518</v>
+        <v>350</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>519</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -7027,13 +7015,13 @@
         <v>116001</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7036,13 @@
         <v>35783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -7063,13 +7051,13 @@
         <v>6816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -7078,13 +7066,13 @@
         <v>42600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,7 +7128,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7152,13 +7140,13 @@
         <v>110422</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
         <v>116</v>
@@ -7167,13 +7155,13 @@
         <v>117384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -7182,13 +7170,13 @@
         <v>227807</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7191,13 @@
         <v>103415</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -7218,13 +7206,13 @@
         <v>93351</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>185</v>
@@ -7236,10 +7224,10 @@
         <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7242,13 @@
         <v>84420</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -7269,13 +7257,13 @@
         <v>39120</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="M21" s="7">
         <v>114</v>
@@ -7284,13 +7272,13 @@
         <v>123540</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7293,13 @@
         <v>64447</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -7320,13 +7308,13 @@
         <v>20702</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -7335,13 +7323,13 @@
         <v>85149</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>561</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7397,13 @@
         <v>210484</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H24" s="7">
         <v>211</v>
@@ -7424,13 +7412,13 @@
         <v>224947</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M24" s="7">
         <v>413</v>
@@ -7439,13 +7427,13 @@
         <v>435431</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7448,13 @@
         <v>85074</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -7475,13 +7463,13 @@
         <v>53538</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -7490,13 +7478,13 @@
         <v>138612</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>28</v>
+        <v>577</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7499,13 @@
         <v>67035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>581</v>
+        <v>341</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>582</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -7526,13 +7514,13 @@
         <v>27648</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -7541,13 +7529,13 @@
         <v>94683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7550,13 @@
         <v>34823</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H27" s="7">
         <v>17</v>
@@ -7577,13 +7565,13 @@
         <v>18344</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>461</v>
+        <v>590</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>594</v>
+        <v>521</v>
       </c>
       <c r="M27" s="7">
         <v>51</v>
@@ -7592,13 +7580,13 @@
         <v>53168</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7654,13 @@
         <v>564845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>471</v>
+        <v>595</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>599</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>548</v>
@@ -7681,13 +7669,13 @@
         <v>564071</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M29" s="7">
         <v>1065</v>
@@ -7696,13 +7684,13 @@
         <v>1128916</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7705,13 @@
         <v>394802</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H30" s="7">
         <v>273</v>
@@ -7732,13 +7720,13 @@
         <v>277667</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>239</v>
+        <v>606</v>
       </c>
       <c r="M30" s="7">
         <v>644</v>
@@ -7747,13 +7735,13 @@
         <v>672469</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7756,13 @@
         <v>287489</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>519</v>
+        <v>611</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H31" s="7">
         <v>133</v>
@@ -7783,13 +7771,13 @@
         <v>133802</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="M31" s="7">
         <v>407</v>
@@ -7798,13 +7786,13 @@
         <v>421291</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,13 +7807,13 @@
         <v>160752</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -7834,13 +7822,13 @@
         <v>60635</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="M32" s="7">
         <v>206</v>
@@ -7849,13 +7837,13 @@
         <v>221387</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,7 +7899,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7932,7 +7920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D98084F-CE2C-4063-8B61-B5452F3B1D7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB42ACA-6403-431B-BAE0-EC45F715E9F4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7949,7 +7937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8056,13 +8044,13 @@
         <v>3653</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -8140,10 +8128,10 @@
         <v>644</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8146,13 @@
         <v>6066</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -8173,13 +8161,13 @@
         <v>5148</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>270</v>
+        <v>649</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -8188,13 +8176,13 @@
         <v>11214</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8197,13 @@
         <v>3771</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8224,13 +8212,13 @@
         <v>744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -8239,13 +8227,13 @@
         <v>4516</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8301,13 @@
         <v>40860</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>663</v>
+        <v>498</v>
       </c>
       <c r="H9" s="7">
         <v>62</v>
@@ -8328,13 +8316,13 @@
         <v>42377</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -8343,13 +8331,13 @@
         <v>83237</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,10 +8352,10 @@
         <v>43794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>668</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>669</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>670</v>
@@ -8418,10 +8406,10 @@
         <v>677</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>679</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -8430,10 +8418,10 @@
         <v>19611</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>681</v>
@@ -8484,10 +8472,10 @@
         <v>688</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>558</v>
+        <v>689</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -8496,13 +8484,13 @@
         <v>42157</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>419</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8558,13 @@
         <v>171119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -8585,13 +8573,13 @@
         <v>97297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M14" s="7">
         <v>237</v>
@@ -8600,13 +8588,13 @@
         <v>268416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8609,13 @@
         <v>84146</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>312</v>
+        <v>704</v>
       </c>
       <c r="H15" s="7">
         <v>104</v>
@@ -8636,13 +8624,13 @@
         <v>74885</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>481</v>
+        <v>706</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M15" s="7">
         <v>182</v>
@@ -8651,13 +8639,13 @@
         <v>159031</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>705</v>
+        <v>482</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8660,13 @@
         <v>73548</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -8687,13 +8675,13 @@
         <v>32617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>713</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -8702,13 +8690,13 @@
         <v>106164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>714</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,7 +8711,7 @@
         <v>37797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>717</v>
@@ -8744,7 +8732,7 @@
         <v>720</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>587</v>
+        <v>721</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -8753,13 +8741,13 @@
         <v>56927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,7 +8803,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8884,7 +8872,7 @@
         <v>734</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>735</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -8893,13 +8881,13 @@
         <v>49023</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>737</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>738</v>
       </c>
       <c r="M20" s="7">
         <v>99</v>
@@ -8908,13 +8896,13 @@
         <v>101048</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>740</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>741</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8917,13 @@
         <v>32237</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>740</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>742</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>743</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -8944,13 +8932,13 @@
         <v>15606</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>746</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -8959,13 +8947,13 @@
         <v>47843</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>628</v>
+        <v>550</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8968,13 @@
         <v>14510</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>750</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -8995,10 +8983,10 @@
         <v>7705</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>752</v>
@@ -9117,10 +9105,10 @@
         <v>762</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9123,13 @@
         <v>35156</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>766</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>767</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -9150,13 +9138,13 @@
         <v>39848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>769</v>
+        <v>357</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>770</v>
+        <v>27</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -9165,13 +9153,13 @@
         <v>75004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>574</v>
+        <v>768</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>771</v>
+        <v>517</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,13 +9174,13 @@
         <v>38873</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -9201,13 +9189,13 @@
         <v>18131</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>594</v>
+        <v>773</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>80</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -9216,10 +9204,10 @@
         <v>57004</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>723</v>
+        <v>775</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>294</v>
+        <v>776</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>777</v>
@@ -9240,10 +9228,10 @@
         <v>778</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>779</v>
+        <v>429</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>780</v>
+        <v>496</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -9252,13 +9240,13 @@
         <v>11742</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>782</v>
+        <v>590</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="M27" s="7">
         <v>40</v>
@@ -9267,13 +9255,13 @@
         <v>35444</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,13 +9329,13 @@
         <v>433256</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H29" s="7">
         <v>488</v>
@@ -9356,13 +9344,13 @@
         <v>357534</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="M29" s="7">
         <v>832</v>
@@ -9371,13 +9359,13 @@
         <v>790790</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9380,13 @@
         <v>223945</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H30" s="7">
         <v>285</v>
@@ -9407,13 +9395,13 @@
         <v>210039</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="M30" s="7">
         <v>500</v>
@@ -9422,13 +9410,13 @@
         <v>433984</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9431,13 @@
         <v>191655</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>806</v>
+        <v>554</v>
       </c>
       <c r="H31" s="7">
         <v>120</v>
@@ -9458,13 +9446,13 @@
         <v>91112</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="M31" s="7">
         <v>299</v>
@@ -9473,13 +9461,13 @@
         <v>282767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>797</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,13 +9482,13 @@
         <v>106683</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -9509,13 +9497,13 @@
         <v>54576</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="M32" s="7">
         <v>163</v>
@@ -9524,13 +9512,13 @@
         <v>161258</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>818</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9586,7 +9574,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6606-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BC6E2B-D739-4F6E-A54E-A6C7F2233E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC5384D-A149-4F0D-B598-152DBDA08296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60CEF55B-7AD9-4648-858A-62E168BE9C23}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D9A3700-1E58-4240-8503-3BEE0B4F6A69}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="811">
   <si>
     <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -77,28 +77,28 @@
     <t>45,23%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>56,74%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>48,69%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,2383 +107,2371 @@
     <t>22,24%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2016 (Tasa respuesta: 35,35%)</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2015 (Tasa respuesta: 35,35%)</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
   </si>
 </sst>
 </file>
@@ -2895,7 +2883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB34DA20-D888-4950-864E-15B29D427CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7563F1-E29F-413A-94D3-C0F80CBE1195}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3306,13 +3294,13 @@
         <v>203655</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3315,13 @@
         <v>105766</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3342,13 +3330,13 @@
         <v>40701</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -3357,13 +3345,13 @@
         <v>146467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3366,13 @@
         <v>84176</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3393,13 +3381,13 @@
         <v>7798</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -3408,13 +3396,13 @@
         <v>91974</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3417,13 @@
         <v>15114</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3444,13 +3432,13 @@
         <v>2025</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -3459,13 +3447,13 @@
         <v>17138</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,7 +3509,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3533,13 +3521,13 @@
         <v>266000</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
@@ -3548,13 +3536,13 @@
         <v>210772</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>435</v>
@@ -3563,13 +3551,13 @@
         <v>476772</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3572,13 @@
         <v>126627</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>40</v>
@@ -3599,13 +3587,13 @@
         <v>41784</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -3614,13 +3602,13 @@
         <v>168411</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3623,13 @@
         <v>125750</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3650,13 +3638,13 @@
         <v>5352</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3665,13 +3653,13 @@
         <v>131102</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3674,13 @@
         <v>40518</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3701,13 +3689,13 @@
         <v>8759</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3716,13 +3704,13 @@
         <v>49277</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,7 +3766,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3790,13 +3778,13 @@
         <v>196503</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3805,13 +3793,13 @@
         <v>173774</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>353</v>
@@ -3820,13 +3808,13 @@
         <v>370277</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3829,13 @@
         <v>103441</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3856,13 +3844,13 @@
         <v>28851</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -3871,13 +3859,13 @@
         <v>132293</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3880,13 @@
         <v>88260</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3907,13 +3895,13 @@
         <v>4886</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -3922,13 +3910,13 @@
         <v>93146</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3931,13 @@
         <v>18229</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3958,13 +3946,13 @@
         <v>3435</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3973,13 +3961,13 @@
         <v>21664</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4023,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4047,13 +4035,13 @@
         <v>325669</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>303</v>
@@ -4062,13 +4050,13 @@
         <v>322257</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>639</v>
@@ -4077,13 +4065,13 @@
         <v>647927</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4086,13 @@
         <v>86547</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -4113,10 +4101,10 @@
         <v>39373</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>171</v>
@@ -4152,10 +4140,10 @@
         <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -4164,13 +4152,13 @@
         <v>19488</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -4179,13 +4167,13 @@
         <v>111224</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4188,13 @@
         <v>51074</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -4215,13 +4203,13 @@
         <v>6101</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -4230,13 +4218,13 @@
         <v>57176</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4292,13 @@
         <v>936085</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>765</v>
@@ -4319,13 +4307,13 @@
         <v>802189</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>1663</v>
@@ -4334,13 +4322,13 @@
         <v>1738275</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,10 +4343,10 @@
         <v>435043</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>203</v>
@@ -4376,7 +4364,7 @@
         <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="M30" s="7">
         <v>565</v>
@@ -4385,13 +4373,13 @@
         <v>593742</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4394,13 @@
         <v>407384</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -4421,13 +4409,13 @@
         <v>39279</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>426</v>
@@ -4436,13 +4424,13 @@
         <v>446663</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4445,13 @@
         <v>125992</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -4472,13 +4460,13 @@
         <v>21171</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>146</v>
@@ -4487,13 +4475,13 @@
         <v>147163</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,7 +4537,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +4558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888CA655-714F-4ED7-84A9-FF02C121E2C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F01853-3433-4842-950D-1CB6012EB7DE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4587,7 +4575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4694,13 +4682,13 @@
         <v>11613</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4709,13 +4697,13 @@
         <v>10278</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4724,13 +4712,13 @@
         <v>21892</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4733,13 @@
         <v>15318</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4760,13 +4748,13 @@
         <v>10489</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4775,13 +4763,13 @@
         <v>25807</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4784,13 @@
         <v>12766</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4811,13 +4799,13 @@
         <v>2195</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -4826,13 +4814,13 @@
         <v>14961</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4835,13 @@
         <v>12035</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4862,13 +4850,13 @@
         <v>2224</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4877,13 +4865,13 @@
         <v>14260</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4939,13 @@
         <v>62448</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -4966,13 +4954,13 @@
         <v>63394</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>115</v>
@@ -4981,13 +4969,13 @@
         <v>125843</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +4990,13 @@
         <v>70803</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5017,13 +5005,13 @@
         <v>45436</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -5032,13 +5020,13 @@
         <v>116239</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5041,13 @@
         <v>54022</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -5068,13 +5056,13 @@
         <v>20273</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -5083,13 +5071,13 @@
         <v>74295</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5092,13 @@
         <v>29082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5196,7 +5184,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5316,7 +5304,7 @@
         <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -5325,13 +5313,13 @@
         <v>32620</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -5340,13 +5328,13 @@
         <v>131278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5349,13 @@
         <v>47187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5376,13 +5364,13 @@
         <v>13678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -5391,13 +5379,13 @@
         <v>60865</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,7 +5441,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5465,13 +5453,13 @@
         <v>105792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -5480,13 +5468,13 @@
         <v>121615</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -5495,13 +5483,13 @@
         <v>227408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5504,13 @@
         <v>102508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5531,13 +5519,13 @@
         <v>48108</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>134</v>
@@ -5546,13 +5534,13 @@
         <v>150616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5555,13 @@
         <v>77027</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -5582,13 +5570,13 @@
         <v>30644</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M21" s="7">
         <v>101</v>
@@ -5597,13 +5585,13 @@
         <v>107671</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5606,13 @@
         <v>35139</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5633,13 +5621,13 @@
         <v>12914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -5648,13 +5636,13 @@
         <v>48053</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,7 +5698,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5722,13 +5710,13 @@
         <v>179154</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H24" s="7">
         <v>173</v>
@@ -5737,13 +5725,13 @@
         <v>181319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M24" s="7">
         <v>344</v>
@@ -5752,13 +5740,13 @@
         <v>360473</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5761,13 @@
         <v>124581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -5788,13 +5776,13 @@
         <v>88376</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>207</v>
@@ -5803,13 +5791,13 @@
         <v>212957</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5812,13 @@
         <v>70579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5839,13 +5827,13 @@
         <v>20468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -5854,13 +5842,13 @@
         <v>91047</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5863,13 @@
         <v>41642</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>114</v>
+        <v>394</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>389</v>
+        <v>110</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -5890,13 +5878,13 @@
         <v>11340</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M27" s="7">
         <v>48</v>
@@ -5905,13 +5893,13 @@
         <v>52982</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5967,13 @@
         <v>512051</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H29" s="7">
         <v>470</v>
@@ -5994,13 +5982,13 @@
         <v>513146</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>942</v>
@@ -6009,13 +5997,13 @@
         <v>1025196</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6018,13 @@
         <v>422611</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H30" s="7">
         <v>262</v>
@@ -6045,13 +6033,13 @@
         <v>281132</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M30" s="7">
         <v>661</v>
@@ -6060,13 +6048,13 @@
         <v>703744</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6069,13 @@
         <v>313051</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H31" s="7">
         <v>100</v>
@@ -6096,13 +6084,13 @@
         <v>106200</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M31" s="7">
         <v>402</v>
@@ -6111,13 +6099,13 @@
         <v>419251</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>423</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6120,13 @@
         <v>165085</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -6147,13 +6135,13 @@
         <v>47143</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M32" s="7">
         <v>197</v>
@@ -6162,13 +6150,13 @@
         <v>212228</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>431</v>
+        <v>179</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,7 +6212,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6245,7 +6233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D6D5E3-E734-49E5-9E10-2D5074ABD706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A6FD45-42ED-4371-B1C8-05CC830D4A95}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6262,7 +6250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6369,13 +6357,13 @@
         <v>8050</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>436</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -6402,10 +6390,10 @@
         <v>440</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6408,13 @@
         <v>15508</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6435,13 +6423,13 @@
         <v>6066</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -6450,13 +6438,13 @@
         <v>21574</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6459,13 @@
         <v>17665</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -6486,13 +6474,13 @@
         <v>9827</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -6501,13 +6489,13 @@
         <v>27493</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6510,13 @@
         <v>1689</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6537,13 +6525,13 @@
         <v>941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6552,13 +6540,13 @@
         <v>2630</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,7 +6614,7 @@
         <v>63192</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>464</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>465</v>
@@ -6647,7 +6635,7 @@
         <v>468</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>92</v>
+        <v>469</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -6656,13 +6644,13 @@
         <v>125500</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6665,13 @@
         <v>70625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -6692,13 +6680,13 @@
         <v>42187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>476</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -6707,13 +6695,13 @@
         <v>112812</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6716,13 @@
         <v>40422</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>482</v>
+        <v>309</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -6797,10 +6785,10 @@
         <v>492</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>190</v>
+        <v>493</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -6809,13 +6797,13 @@
         <v>37841</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,7 +6859,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6883,13 +6871,13 @@
         <v>172697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -6898,13 +6886,13 @@
         <v>146374</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>292</v>
@@ -6913,13 +6901,13 @@
         <v>319071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,13 +6922,13 @@
         <v>120179</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H15" s="7">
         <v>79</v>
@@ -6949,13 +6937,13 @@
         <v>82524</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M15" s="7">
         <v>190</v>
@@ -6964,13 +6952,13 @@
         <v>202704</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,13 +6973,13 @@
         <v>77945</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -7000,13 +6988,13 @@
         <v>38056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>350</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -7015,13 +7003,13 @@
         <v>116001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +7024,13 @@
         <v>35783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>522</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -7051,13 +7039,13 @@
         <v>6816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -7066,13 +7054,13 @@
         <v>42600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>527</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,7 +7116,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7140,13 +7128,13 @@
         <v>110422</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>116</v>
@@ -7155,13 +7143,13 @@
         <v>117384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -7170,13 +7158,13 @@
         <v>227807</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7179,13 @@
         <v>103415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -7206,10 +7194,10 @@
         <v>93351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>542</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>543</v>
@@ -7224,10 +7212,10 @@
         <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,13 +7230,13 @@
         <v>84420</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -7257,13 +7245,13 @@
         <v>39120</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>551</v>
+        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>114</v>
@@ -7293,13 +7281,13 @@
         <v>64447</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -7308,13 +7296,13 @@
         <v>20702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -7323,13 +7311,13 @@
         <v>85149</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>559</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,7 +7373,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7397,13 +7385,13 @@
         <v>210484</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H24" s="7">
         <v>211</v>
@@ -7412,13 +7400,13 @@
         <v>224947</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M24" s="7">
         <v>413</v>
@@ -7427,13 +7415,13 @@
         <v>435431</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,13 +7436,13 @@
         <v>85074</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -7463,13 +7451,13 @@
         <v>53538</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -7478,13 +7466,13 @@
         <v>138612</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,13 +7487,13 @@
         <v>67035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>581</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -7514,13 +7502,13 @@
         <v>27648</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -7529,13 +7517,13 @@
         <v>94683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +7538,13 @@
         <v>34823</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H27" s="7">
         <v>17</v>
@@ -7565,13 +7553,13 @@
         <v>18344</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="M27" s="7">
         <v>51</v>
@@ -7580,13 +7568,13 @@
         <v>53168</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7642,13 @@
         <v>564845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>548</v>
@@ -7669,13 +7657,13 @@
         <v>564071</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>1065</v>
@@ -7684,13 +7672,13 @@
         <v>1128916</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7693,13 @@
         <v>394802</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H30" s="7">
         <v>273</v>
@@ -7723,10 +7711,10 @@
         <v>305</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>606</v>
+        <v>507</v>
       </c>
       <c r="M30" s="7">
         <v>644</v>
@@ -7735,13 +7723,13 @@
         <v>672469</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,13 +7744,13 @@
         <v>287489</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H31" s="7">
         <v>133</v>
@@ -7771,13 +7759,13 @@
         <v>133802</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M31" s="7">
         <v>407</v>
@@ -7786,13 +7774,13 @@
         <v>421291</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7795,13 @@
         <v>160752</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>621</v>
+        <v>386</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -7822,13 +7810,13 @@
         <v>60635</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>622</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="M32" s="7">
         <v>206</v>
@@ -7899,7 +7887,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7920,7 +7908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB42ACA-6403-431B-BAE0-EC45F715E9F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712F490D-7F69-4D36-AD0A-B23DC7785A81}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8062,10 +8050,10 @@
         <v>632</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>633</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>634</v>
+        <v>405</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -8074,13 +8062,13 @@
         <v>8065</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8083,13 @@
         <v>8825</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -8110,13 +8098,13 @@
         <v>6546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>641</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>643</v>
+        <v>567</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -8125,13 +8113,13 @@
         <v>15371</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>554</v>
+        <v>640</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8134,13 @@
         <v>6066</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -8161,13 +8149,13 @@
         <v>5148</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -8176,13 +8164,13 @@
         <v>11214</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8185,13 @@
         <v>3771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8212,13 +8200,13 @@
         <v>744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -8227,13 +8215,13 @@
         <v>4516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,10 +8292,10 @@
         <v>305</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>498</v>
+        <v>658</v>
       </c>
       <c r="H9" s="7">
         <v>62</v>
@@ -8316,13 +8304,13 @@
         <v>42377</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -8331,13 +8319,13 @@
         <v>83237</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8340,13 @@
         <v>43794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -8367,13 +8355,13 @@
         <v>39737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -8382,13 +8370,13 @@
         <v>83531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,13 +8391,13 @@
         <v>40931</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>675</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -8418,13 +8406,13 @@
         <v>19611</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -8433,13 +8421,13 @@
         <v>60542</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,13 +8442,13 @@
         <v>26903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>685</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -8469,13 +8457,13 @@
         <v>15253</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>689</v>
+        <v>191</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -8484,13 +8472,13 @@
         <v>42157</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8546,7 +8534,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8558,13 +8546,13 @@
         <v>171119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -8573,13 +8561,13 @@
         <v>97297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>696</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>697</v>
+        <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="M14" s="7">
         <v>237</v>
@@ -8588,13 +8576,13 @@
         <v>268416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,13 +8597,13 @@
         <v>84146</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="H15" s="7">
         <v>104</v>
@@ -8624,13 +8612,13 @@
         <v>74885</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="M15" s="7">
         <v>182</v>
@@ -8639,13 +8627,13 @@
         <v>159031</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>482</v>
+        <v>702</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8660,13 +8648,13 @@
         <v>73548</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -8675,13 +8663,13 @@
         <v>32617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -8690,13 +8678,13 @@
         <v>106164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>710</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8711,13 +8699,13 @@
         <v>37797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>717</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -8726,13 +8714,13 @@
         <v>19130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -8741,13 +8729,13 @@
         <v>56927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8803,7 +8791,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8815,13 +8803,13 @@
         <v>80394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -8830,13 +8818,13 @@
         <v>82248</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -8845,13 +8833,13 @@
         <v>162642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8866,10 +8854,10 @@
         <v>52025</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>296</v>
@@ -8881,13 +8869,13 @@
         <v>49023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="M20" s="7">
         <v>99</v>
@@ -8896,13 +8884,13 @@
         <v>101048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8905,13 @@
         <v>32237</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -8932,13 +8920,13 @@
         <v>15606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -8947,13 +8935,13 @@
         <v>47843</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>550</v>
+        <v>742</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8968,13 +8956,13 @@
         <v>14510</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -8983,13 +8971,13 @@
         <v>7705</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -8998,13 +8986,13 @@
         <v>22215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9060,7 +9048,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9072,13 +9060,13 @@
         <v>137230</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H24" s="7">
         <v>183</v>
@@ -9087,13 +9075,13 @@
         <v>131200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M24" s="7">
         <v>315</v>
@@ -9102,13 +9090,13 @@
         <v>268430</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>301</v>
+        <v>760</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9123,13 +9111,13 @@
         <v>35156</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>766</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -9138,10 +9126,10 @@
         <v>39848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>357</v>
+        <v>766</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>27</v>
@@ -9153,13 +9141,13 @@
         <v>75004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>768</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9174,13 +9162,13 @@
         <v>38873</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>772</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -9189,13 +9177,13 @@
         <v>18131</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>773</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>80</v>
+        <v>771</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -9204,13 +9192,13 @@
         <v>57004</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>775</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9225,13 +9213,13 @@
         <v>23701</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>778</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -9243,10 +9231,10 @@
         <v>779</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>590</v>
+        <v>780</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M27" s="7">
         <v>40</v>
@@ -9255,13 +9243,13 @@
         <v>35444</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9329,13 +9317,13 @@
         <v>433256</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H29" s="7">
         <v>488</v>
@@ -9344,13 +9332,13 @@
         <v>357534</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M29" s="7">
         <v>832</v>
@@ -9359,13 +9347,13 @@
         <v>790790</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9380,13 +9368,13 @@
         <v>223945</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>793</v>
+        <v>540</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>794</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>795</v>
       </c>
       <c r="H30" s="7">
         <v>285</v>
@@ -9395,13 +9383,13 @@
         <v>210039</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>797</v>
+        <v>383</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>798</v>
+        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>500</v>
@@ -9410,13 +9398,13 @@
         <v>433984</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>800</v>
+        <v>262</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,13 +9419,13 @@
         <v>191655</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>554</v>
+        <v>640</v>
       </c>
       <c r="H31" s="7">
         <v>120</v>
@@ -9446,13 +9434,13 @@
         <v>91112</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>804</v>
+        <v>42</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="M31" s="7">
         <v>299</v>
@@ -9461,13 +9449,13 @@
         <v>282767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,13 +9470,13 @@
         <v>106683</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -9497,13 +9485,13 @@
         <v>54576</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="M32" s="7">
         <v>163</v>
@@ -9512,13 +9500,13 @@
         <v>161258</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>98</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9574,7 +9562,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6606-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC5384D-A149-4F0D-B598-152DBDA08296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7928B6FB-F766-4DEC-AD86-40B2EAD194D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D9A3700-1E58-4240-8503-3BEE0B4F6A69}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FE922C3-A39B-4ADA-B4B1-BAD13612605C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="819">
   <si>
     <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>45,23%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
   </si>
   <si>
     <t>56,74%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
   <si>
     <t>48,69%</t>
   </si>
   <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>22,24%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,2341 +137,2365 @@
     <t>30,67%</t>
   </si>
   <si>
-    <t>19,12%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
   </si>
   <si>
     <t>44,35%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2016 (Tasa respuesta: 35,35%)</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2016 (Tasa respuesta: 35,35%)</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a manipular cargas pesadas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>9,45%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
 </sst>
 </file>
@@ -2883,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7563F1-E29F-413A-94D3-C0F80CBE1195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9CB8AF-49A2-4915-9F26-DFE3D73ABC47}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3294,13 +3318,13 @@
         <v>203655</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3339,13 @@
         <v>105766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3330,13 +3354,13 @@
         <v>40701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -3345,13 +3369,13 @@
         <v>146467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3390,13 @@
         <v>84176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3381,13 +3405,13 @@
         <v>7798</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -3396,13 +3420,13 @@
         <v>91974</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3441,13 @@
         <v>15114</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3432,13 +3456,13 @@
         <v>2025</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -3447,13 +3471,13 @@
         <v>17138</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3533,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3521,13 +3545,13 @@
         <v>266000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
@@ -3536,13 +3560,13 @@
         <v>210772</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>435</v>
@@ -3551,13 +3575,13 @@
         <v>476772</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3596,13 @@
         <v>126627</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>40</v>
@@ -3587,13 +3611,13 @@
         <v>41784</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -3602,13 +3626,13 @@
         <v>168411</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3647,13 @@
         <v>125750</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3638,13 +3662,13 @@
         <v>5352</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3653,13 +3677,13 @@
         <v>131102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3698,13 @@
         <v>40518</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3689,13 +3713,13 @@
         <v>8759</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3704,13 +3728,13 @@
         <v>49277</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3790,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3778,13 +3802,13 @@
         <v>196503</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3793,13 +3817,13 @@
         <v>173774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>353</v>
@@ -3808,13 +3832,13 @@
         <v>370277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3853,13 @@
         <v>103441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3844,13 +3868,13 @@
         <v>28851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
@@ -3859,13 +3883,13 @@
         <v>132293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3904,13 @@
         <v>88260</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3895,13 +3919,13 @@
         <v>4886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -3910,13 +3934,13 @@
         <v>93146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3955,13 @@
         <v>18229</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3946,13 +3970,13 @@
         <v>3435</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3961,13 +3985,13 @@
         <v>21664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4047,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4035,13 +4059,13 @@
         <v>325669</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>303</v>
@@ -4050,13 +4074,13 @@
         <v>322257</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>639</v>
@@ -4065,13 +4089,13 @@
         <v>647927</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4110,13 @@
         <v>86547</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -4101,13 +4125,13 @@
         <v>39373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -4116,13 +4140,13 @@
         <v>125920</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4161,13 @@
         <v>91736</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -4152,13 +4176,13 @@
         <v>19488</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -4167,13 +4191,13 @@
         <v>111224</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4212,13 @@
         <v>51074</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -4203,13 +4227,13 @@
         <v>6101</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -4218,13 +4242,13 @@
         <v>57176</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4316,13 @@
         <v>936085</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>765</v>
@@ -4307,13 +4331,13 @@
         <v>802189</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>1663</v>
@@ -4322,13 +4346,13 @@
         <v>1738275</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4367,13 @@
         <v>435043</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>153</v>
@@ -4358,13 +4382,13 @@
         <v>158699</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>565</v>
@@ -4373,13 +4397,13 @@
         <v>593742</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4418,13 @@
         <v>407384</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -4409,13 +4433,13 @@
         <v>39279</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>426</v>
@@ -4424,13 +4448,13 @@
         <v>446663</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4469,13 @@
         <v>125992</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -4460,13 +4484,13 @@
         <v>21171</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>146</v>
@@ -4475,13 +4499,13 @@
         <v>147163</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,7 +4561,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4558,7 +4582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F01853-3433-4842-950D-1CB6012EB7DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4B1B8D-05D1-4D27-AF42-143A33439CC1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4575,7 +4599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4682,13 +4706,13 @@
         <v>11613</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4697,13 +4721,13 @@
         <v>10278</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4712,13 +4736,13 @@
         <v>21892</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4757,13 @@
         <v>15318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4748,13 +4772,13 @@
         <v>10489</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4763,13 +4787,13 @@
         <v>25807</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4808,13 @@
         <v>12766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4799,13 +4823,13 @@
         <v>2195</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -4814,13 +4838,13 @@
         <v>14961</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4859,13 @@
         <v>12035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4850,13 +4874,13 @@
         <v>2224</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4865,13 +4889,13 @@
         <v>14260</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4963,13 @@
         <v>62448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -4954,13 +4978,13 @@
         <v>63394</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>115</v>
@@ -4969,13 +4993,13 @@
         <v>125843</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5014,13 @@
         <v>70803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5005,13 +5029,13 @@
         <v>45436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -5020,13 +5044,13 @@
         <v>116239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5065,13 @@
         <v>54022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -5056,13 +5080,13 @@
         <v>20273</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -5071,13 +5095,13 @@
         <v>74295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5116,13 @@
         <v>29082</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5107,13 +5131,13 @@
         <v>6986</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M12" s="7">
         <v>35</v>
@@ -5122,13 +5146,13 @@
         <v>36068</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,7 +5208,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5196,13 +5220,13 @@
         <v>153043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -5211,13 +5235,13 @@
         <v>136538</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -5226,13 +5250,13 @@
         <v>289581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5271,13 @@
         <v>109402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -5262,13 +5286,13 @@
         <v>88724</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M15" s="7">
         <v>184</v>
@@ -5277,13 +5301,13 @@
         <v>198125</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5322,13 @@
         <v>98658</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -5313,7 +5337,7 @@
         <v>32620</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>318</v>
@@ -5367,10 +5391,10 @@
         <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -5379,13 +5403,13 @@
         <v>60865</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,7 +5465,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5453,13 +5477,13 @@
         <v>105792</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -5468,13 +5492,13 @@
         <v>121615</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -5483,13 +5507,13 @@
         <v>227408</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5528,13 @@
         <v>102508</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5519,13 +5543,13 @@
         <v>48108</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>134</v>
@@ -5534,13 +5558,13 @@
         <v>150616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5579,13 @@
         <v>77027</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -5570,13 +5594,13 @@
         <v>30644</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M21" s="7">
         <v>101</v>
@@ -5585,13 +5609,13 @@
         <v>107671</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5630,13 @@
         <v>35139</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5621,13 +5645,13 @@
         <v>12914</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -5636,13 +5660,13 @@
         <v>48053</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,7 +5722,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5710,13 +5734,13 @@
         <v>179154</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H24" s="7">
         <v>173</v>
@@ -5725,13 +5749,13 @@
         <v>181319</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M24" s="7">
         <v>344</v>
@@ -5740,13 +5764,13 @@
         <v>360473</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5785,13 @@
         <v>124581</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -5776,13 +5800,13 @@
         <v>88376</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>207</v>
@@ -5791,13 +5815,13 @@
         <v>212957</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5836,13 @@
         <v>70579</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5827,13 +5851,13 @@
         <v>20468</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -5842,13 +5866,13 @@
         <v>91047</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5887,13 @@
         <v>41642</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -5878,13 +5902,13 @@
         <v>11340</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M27" s="7">
         <v>48</v>
@@ -5893,10 +5917,10 @@
         <v>52982</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>399</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>400</v>
@@ -6087,10 +6111,10 @@
         <v>422</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M31" s="7">
         <v>402</v>
@@ -6099,13 +6123,13 @@
         <v>419251</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,10 +6144,10 @@
         <v>165085</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>428</v>
@@ -6153,10 +6177,10 @@
         <v>432</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>179</v>
+        <v>433</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,7 +6236,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6233,7 +6257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A6FD45-42ED-4371-B1C8-05CC830D4A95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B8E5EE-718E-416B-8D5C-203217491485}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6250,7 +6274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6357,13 +6381,13 @@
         <v>8050</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>63</v>
+        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -6372,13 +6396,13 @@
         <v>13057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -6387,13 +6411,13 @@
         <v>21107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>440</v>
+        <v>255</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6432,13 @@
         <v>15508</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6423,13 +6447,13 @@
         <v>6066</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -6438,13 +6462,13 @@
         <v>21574</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6483,13 @@
         <v>17665</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -6474,13 +6498,13 @@
         <v>9827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -6489,13 +6513,13 @@
         <v>27493</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>456</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6534,13 @@
         <v>1689</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6525,13 +6549,13 @@
         <v>941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>461</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6540,13 +6564,13 @@
         <v>2630</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6638,13 @@
         <v>63192</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -6629,13 +6653,13 @@
         <v>62309</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -6644,13 +6668,13 @@
         <v>125500</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6689,13 @@
         <v>70625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -6680,13 +6704,13 @@
         <v>42187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -6695,13 +6719,13 @@
         <v>112812</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6740,13 @@
         <v>40422</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>482</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>483</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -6731,13 +6755,13 @@
         <v>19151</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -6746,13 +6770,13 @@
         <v>59574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,7 +6791,7 @@
         <v>24010</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>489</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>490</v>
@@ -6859,7 +6883,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6925,10 +6949,10 @@
         <v>507</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H15" s="7">
         <v>79</v>
@@ -6937,13 +6961,13 @@
         <v>82524</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M15" s="7">
         <v>190</v>
@@ -6952,13 +6976,13 @@
         <v>202704</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6997,13 @@
         <v>77945</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -6988,13 +7012,13 @@
         <v>38056</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -7003,13 +7027,13 @@
         <v>116001</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,13 +7048,13 @@
         <v>35783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -7039,13 +7063,13 @@
         <v>6816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -7054,13 +7078,13 @@
         <v>42600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>530</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,7 +7140,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7128,13 +7152,13 @@
         <v>110422</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>116</v>
@@ -7143,13 +7167,13 @@
         <v>117384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -7158,13 +7182,13 @@
         <v>227807</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,10 +7203,10 @@
         <v>103415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>541</v>
@@ -7197,10 +7221,10 @@
         <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>543</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>185</v>
@@ -7251,7 +7275,7 @@
         <v>551</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>94</v>
+        <v>552</v>
       </c>
       <c r="M21" s="7">
         <v>114</v>
@@ -7260,13 +7284,13 @@
         <v>123540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,10 +7338,10 @@
         <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,7 +7397,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7385,13 +7409,13 @@
         <v>210484</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H24" s="7">
         <v>211</v>
@@ -7400,13 +7424,13 @@
         <v>224947</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M24" s="7">
         <v>413</v>
@@ -7415,13 +7439,13 @@
         <v>435431</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7460,13 @@
         <v>85074</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H25" s="7">
         <v>52</v>
@@ -7451,13 +7475,13 @@
         <v>53538</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -7466,10 +7490,10 @@
         <v>138612</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>580</v>
@@ -7490,10 +7514,10 @@
         <v>581</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>424</v>
+        <v>582</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -7502,13 +7526,13 @@
         <v>27648</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -7517,13 +7541,13 @@
         <v>94683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7562,13 @@
         <v>34823</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H27" s="7">
         <v>17</v>
@@ -7553,10 +7577,10 @@
         <v>18344</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>593</v>
+        <v>461</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>594</v>
@@ -7645,10 +7669,10 @@
         <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>548</v>
@@ -7657,13 +7681,13 @@
         <v>564071</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>1065</v>
@@ -7672,13 +7696,13 @@
         <v>1128916</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7717,13 @@
         <v>394802</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H30" s="7">
         <v>273</v>
@@ -7708,13 +7732,13 @@
         <v>277667</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>507</v>
+        <v>239</v>
       </c>
       <c r="M30" s="7">
         <v>644</v>
@@ -7723,10 +7747,10 @@
         <v>672469</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>612</v>
@@ -7747,10 +7771,10 @@
         <v>613</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="H31" s="7">
         <v>133</v>
@@ -7759,13 +7783,13 @@
         <v>133802</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="M31" s="7">
         <v>407</v>
@@ -7774,13 +7798,13 @@
         <v>421291</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,13 +7819,13 @@
         <v>160752</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -7810,13 +7834,13 @@
         <v>60635</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>623</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>624</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="M32" s="7">
         <v>206</v>
@@ -7825,13 +7849,13 @@
         <v>221387</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,7 +7911,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7908,7 +7932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712F490D-7F69-4D36-AD0A-B23DC7785A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A844972-9A3E-43A5-96CE-ADB0D3E440FC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7925,7 +7949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8032,13 +8056,13 @@
         <v>3653</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>631</v>
+        <v>408</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -8050,10 +8074,10 @@
         <v>632</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>633</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>405</v>
+        <v>634</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -8062,13 +8086,13 @@
         <v>8065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8107,13 @@
         <v>8825</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -8098,13 +8122,13 @@
         <v>6546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>641</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -8113,13 +8137,13 @@
         <v>15371</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8158,13 @@
         <v>6066</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -8149,13 +8173,13 @@
         <v>5148</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>645</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -8164,13 +8188,13 @@
         <v>11214</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8209,13 @@
         <v>3771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>656</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8200,13 +8224,13 @@
         <v>744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -8215,13 +8239,13 @@
         <v>4516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>656</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8313,13 @@
         <v>40860</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="H9" s="7">
         <v>62</v>
@@ -8304,13 +8328,13 @@
         <v>42377</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -8319,13 +8343,13 @@
         <v>83237</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8364,13 @@
         <v>43794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>665</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>666</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -8355,13 +8379,13 @@
         <v>39737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -8370,13 +8394,13 @@
         <v>83531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8415,13 @@
         <v>40931</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -8406,13 +8430,13 @@
         <v>19611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -8421,13 +8445,13 @@
         <v>60542</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,13 +8466,13 @@
         <v>26903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>100</v>
+        <v>685</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -8457,13 +8481,13 @@
         <v>15253</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>191</v>
+        <v>558</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -8472,13 +8496,13 @@
         <v>42157</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>666</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,7 +8558,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8546,13 +8570,13 @@
         <v>171119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -8561,13 +8585,13 @@
         <v>97297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>695</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>15</v>
+        <v>696</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="M14" s="7">
         <v>237</v>
@@ -8576,13 +8600,13 @@
         <v>268416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,13 +8621,13 @@
         <v>84146</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>698</v>
+        <v>312</v>
       </c>
       <c r="H15" s="7">
         <v>104</v>
@@ -8612,13 +8636,13 @@
         <v>74885</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>700</v>
+        <v>481</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="M15" s="7">
         <v>182</v>
@@ -8627,13 +8651,13 @@
         <v>159031</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8648,13 +8672,13 @@
         <v>73548</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -8663,13 +8687,13 @@
         <v>32617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>516</v>
+        <v>713</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -8678,13 +8702,13 @@
         <v>106164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8702,10 +8726,10 @@
         <v>712</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>717</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -8714,13 +8738,13 @@
         <v>19130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>716</v>
+        <v>587</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -8729,13 +8753,13 @@
         <v>56927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>685</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,7 +8815,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8803,13 +8827,13 @@
         <v>80394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -8818,13 +8842,13 @@
         <v>82248</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -8833,13 +8857,13 @@
         <v>162642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8854,13 +8878,13 @@
         <v>52025</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>735</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -8869,13 +8893,13 @@
         <v>49023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="M20" s="7">
         <v>99</v>
@@ -8884,13 +8908,13 @@
         <v>101048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8905,13 +8929,13 @@
         <v>32237</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>736</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -8920,13 +8944,13 @@
         <v>15606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>116</v>
+        <v>745</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -8935,13 +8959,13 @@
         <v>47843</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>742</v>
+        <v>628</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,13 +8980,13 @@
         <v>14510</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>745</v>
+        <v>631</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -8971,13 +8995,13 @@
         <v>7705</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>748</v>
+        <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -8986,13 +9010,13 @@
         <v>22215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9048,7 +9072,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9060,13 +9084,13 @@
         <v>137230</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="H24" s="7">
         <v>183</v>
@@ -9075,13 +9099,13 @@
         <v>131200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M24" s="7">
         <v>315</v>
@@ -9090,13 +9114,13 @@
         <v>268430</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9111,13 +9135,13 @@
         <v>35156</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -9126,13 +9150,13 @@
         <v>39848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>27</v>
+        <v>770</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -9141,13 +9165,13 @@
         <v>75004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>574</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>519</v>
+        <v>771</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9162,13 +9186,13 @@
         <v>38873</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -9177,13 +9201,13 @@
         <v>18131</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>594</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>771</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="M26" s="7">
         <v>60</v>
@@ -9192,13 +9216,13 @@
         <v>57004</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>773</v>
+        <v>723</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>774</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9237,13 @@
         <v>23701</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -9228,13 +9252,13 @@
         <v>11742</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M27" s="7">
         <v>40</v>
@@ -9243,13 +9267,13 @@
         <v>35444</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9317,13 +9341,13 @@
         <v>433256</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H29" s="7">
         <v>488</v>
@@ -9332,13 +9356,13 @@
         <v>357534</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M29" s="7">
         <v>832</v>
@@ -9347,13 +9371,13 @@
         <v>790790</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9368,13 +9392,13 @@
         <v>223945</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>540</v>
+        <v>796</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>548</v>
+        <v>797</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="H30" s="7">
         <v>285</v>
@@ -9383,13 +9407,13 @@
         <v>210039</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>383</v>
+        <v>800</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>384</v>
+        <v>801</v>
       </c>
       <c r="M30" s="7">
         <v>500</v>
@@ -9398,13 +9422,13 @@
         <v>433984</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>262</v>
+        <v>803</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9419,13 +9443,13 @@
         <v>191655</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>640</v>
+        <v>806</v>
       </c>
       <c r="H31" s="7">
         <v>120</v>
@@ -9434,13 +9458,13 @@
         <v>91112</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>808</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="M31" s="7">
         <v>299</v>
@@ -9449,13 +9473,13 @@
         <v>282767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>743</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9470,13 +9494,13 @@
         <v>106683</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>804</v>
+        <v>719</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -9488,10 +9512,10 @@
         <v>558</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="M32" s="7">
         <v>163</v>
@@ -9500,13 +9524,13 @@
         <v>161258</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9562,7 +9586,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
